--- a/biology/Zoologie/Dipluridae/Dipluridae.xlsx
+++ b/biology/Zoologie/Dipluridae/Dipluridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dipluridae sont une famille d'araignées mygalomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dipluridae sont une famille d'araignées mygalomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Océanie et en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Océanie et en Asie du Sud-Est.
 Elles préfèrent les habitats tropicaux.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur chélicères sont dépourvues de rastellum.
 </t>
@@ -574,9 +590,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Trias[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Trias.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille rassemble 92 espèces dans sept genres[1].
-Les sous-famille des Ischnothelinae et des Euagrinae ont été élevées au rang de famille par Opatova et al.[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille rassemble 92 espèces dans sept genres.
+Les sous-famille des Ischnothelinae et des Euagrinae ont été élevées au rang de famille par Opatova et al..
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 21.5, 16/11/2020)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 21.5, 16/11/2020) :
 Diplura C. L. Koch, 1850
 Harmonicon F. O. Pickard-Cambridge, 1896
 Linothele Karsch, 1879
@@ -647,7 +669,7 @@
 Siremata Passanha &amp; Brescovit, 2018
 Striamea Raven, 1981
 Trechona C. L. Koch, 1850
-Selon The World Spider Catalog (version 20.5, 2020)[2] :
+Selon The World Spider Catalog (version 20.5, 2020) :
 † Cethegoides Wunderlich, 2017
 † Clostes Menge, 1869
 † Cretadiplura Selden, 2005
@@ -682,7 +704,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Simon, 1889 : « Arachnides. Voyage de M. E. Simon au Venezuela (décembre 1887-avril 1888). 4e Mémoire. » Annales de la Société Entomologique de France, sér. 6, vol. 9, p. 169-220 (texte intégral).</t>
         </is>
